--- a/data/sys-rev/data_extraction_reviewer1.xlsx
+++ b/data/sys-rev/data_extraction_reviewer1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lm16564_bristol_ac_uk/Documents/Documents/rrr/lipids_dementia_review/data/data-extraction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lm16564_bristol_ac_uk/Documents/Documents/rrr/thesis/data/sys-rev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2517" documentId="8_{04B427BE-B11B-4098-936C-C9C5AF3C9B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3024FBAB-320F-4C36-B4C6-07AFA9596C8F}"/>
+  <xr:revisionPtr revIDLastSave="2638" documentId="8_{04B427BE-B11B-4098-936C-C9C5AF3C9B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E6A4497-FACC-4156-B27B-00D418AFE813}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{327911BE-8E71-4068-9CBC-925F16DF4300}"/>
+    <workbookView xWindow="-9465" yWindow="1665" windowWidth="21600" windowHeight="11265" xr2:uid="{327911BE-8E71-4068-9CBC-925F16DF4300}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="541">
   <si>
     <t>Title</t>
   </si>
@@ -1658,6 +1658,9 @@
   </si>
   <si>
     <t>mmol/L</t>
+  </si>
+  <si>
+    <t>Use of statins and incidence of dementia and cognitive impairment without dementia in a cohort study</t>
   </si>
 </sst>
 </file>
@@ -1804,63 +1807,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <fill>
         <patternFill>
@@ -2033,6 +1980,34 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2346,41 +2321,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6609354A-F804-4934-9687-5C79298F7466}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.08984375" customWidth="1"/>
-    <col min="2" max="2" width="5.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" customWidth="1"/>
-    <col min="9" max="14" width="9.1796875" customWidth="1"/>
-    <col min="15" max="16" width="8.81640625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="16" width="8.85546875" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="17.1796875" customWidth="1"/>
-    <col min="19" max="19" width="23.36328125" customWidth="1"/>
-    <col min="20" max="20" width="18.08984375" customWidth="1"/>
-    <col min="21" max="21" width="19.453125" style="1" customWidth="1"/>
-    <col min="22" max="23" width="15.7265625" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" style="1" customWidth="1"/>
+    <col min="22" max="23" width="15.7109375" customWidth="1"/>
     <col min="24" max="33" width="15" customWidth="1"/>
-    <col min="34" max="34" width="9.1796875" style="1"/>
-    <col min="35" max="35" width="8.7265625"/>
+    <col min="34" max="34" width="9.140625" style="1"/>
+    <col min="35" max="35" width="8.7109375"/>
     <col min="36" max="36" width="0" hidden="1" customWidth="1"/>
-    <col min="37" max="39" width="8.7265625"/>
-    <col min="40" max="40" width="9.1796875" style="15"/>
-    <col min="41" max="16384" width="9.1796875" style="16"/>
+    <col min="37" max="39" width="8.7109375"/>
+    <col min="40" max="40" width="9.140625" style="15"/>
+    <col min="41" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -2505,7 +2481,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>9429</v>
       </c>
@@ -2599,7 +2575,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>9429</v>
       </c>
@@ -2693,7 +2669,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>9429</v>
       </c>
@@ -2787,7 +2763,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>9429</v>
       </c>
@@ -2881,7 +2857,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>9429</v>
       </c>
@@ -2975,7 +2951,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>9429</v>
       </c>
@@ -3069,7 +3045,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>9429</v>
       </c>
@@ -3163,7 +3139,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:41" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>9429</v>
       </c>
@@ -3257,7 +3233,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>14346</v>
       </c>
@@ -3351,7 +3327,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>14346</v>
       </c>
@@ -3445,7 +3421,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>14346</v>
       </c>
@@ -3539,7 +3515,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>14346</v>
       </c>
@@ -3633,7 +3609,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>14346</v>
       </c>
@@ -3727,7 +3703,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14346</v>
       </c>
@@ -3821,7 +3797,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>14346</v>
       </c>
@@ -3915,7 +3891,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>14346</v>
       </c>
@@ -4009,7 +3985,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>14346</v>
       </c>
@@ -4103,7 +4079,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>14346</v>
       </c>
@@ -4197,7 +4173,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>14346</v>
       </c>
@@ -4291,7 +4267,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>14346</v>
       </c>
@@ -4385,7 +4361,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>14346</v>
       </c>
@@ -4479,7 +4455,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:41" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:41" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>14346</v>
       </c>
@@ -4573,7 +4549,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>14759</v>
       </c>
@@ -4660,7 +4636,7 @@
       </c>
       <c r="AM24" s="9"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>14760</v>
       </c>
@@ -4750,7 +4726,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>14761</v>
       </c>
@@ -4843,7 +4819,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>10454</v>
       </c>
@@ -4932,7 +4908,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>10454</v>
       </c>
@@ -5023,7 +4999,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9740</v>
       </c>
@@ -5071,7 +5047,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9740</v>
       </c>
@@ -5119,7 +5095,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9740</v>
       </c>
@@ -5167,7 +5143,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>14763</v>
       </c>
@@ -5251,7 +5227,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>14763</v>
       </c>
@@ -5335,7 +5311,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>14763</v>
       </c>
@@ -5419,7 +5395,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>14763</v>
       </c>
@@ -5503,7 +5479,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>14763</v>
       </c>
@@ -5587,7 +5563,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>14763</v>
       </c>
@@ -5671,7 +5647,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="38" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>14709</v>
       </c>
@@ -5745,7 +5721,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>14709</v>
       </c>
@@ -5819,7 +5795,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>14709</v>
       </c>
@@ -5893,7 +5869,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>14709</v>
       </c>
@@ -5967,7 +5943,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>14709</v>
       </c>
@@ -6041,7 +6017,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>14709</v>
       </c>
@@ -6115,7 +6091,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>14709</v>
       </c>
@@ -6189,7 +6165,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>14709</v>
       </c>
@@ -6263,7 +6239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>14709</v>
       </c>
@@ -6337,7 +6313,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>14709</v>
       </c>
@@ -6411,7 +6387,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>14709</v>
       </c>
@@ -6485,7 +6461,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>14709</v>
       </c>
@@ -6559,7 +6535,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>14709</v>
       </c>
@@ -6633,7 +6609,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>14709</v>
       </c>
@@ -6707,7 +6683,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>14709</v>
       </c>
@@ -6781,7 +6757,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:41" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>14709</v>
       </c>
@@ -6855,7 +6831,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5046</v>
       </c>
@@ -6875,7 +6851,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>9759</v>
       </c>
@@ -6946,7 +6922,7 @@
       <c r="AL55" s="16"/>
       <c r="AM55" s="16"/>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>9759</v>
       </c>
@@ -7017,7 +6993,7 @@
       <c r="AL56" s="16"/>
       <c r="AM56" s="16"/>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5007</v>
       </c>
@@ -7037,7 +7013,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="58" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>10068</v>
       </c>
@@ -7088,7 +7064,7 @@
       </c>
       <c r="AN58" s="10"/>
     </row>
-    <row r="59" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>10068</v>
       </c>
@@ -7139,7 +7115,7 @@
       </c>
       <c r="AN59" s="10"/>
     </row>
-    <row r="60" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>10068</v>
       </c>
@@ -7190,7 +7166,7 @@
       </c>
       <c r="AN60" s="10"/>
     </row>
-    <row r="61" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>10068</v>
       </c>
@@ -7232,7 +7208,7 @@
       </c>
       <c r="AN61" s="10"/>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>3653</v>
       </c>
@@ -7285,7 +7261,7 @@
       <c r="AL62" s="16"/>
       <c r="AM62" s="16"/>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B63" s="16"/>
       <c r="D63" t="s">
         <v>32</v>
@@ -7317,7 +7293,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B64" s="16"/>
       <c r="D64" t="s">
         <v>32</v>
@@ -7347,7 +7323,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:41" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:41" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
         <v>4460</v>
       </c>
@@ -7372,7 +7348,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="66" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>6297</v>
       </c>
@@ -7455,7 +7431,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="67" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>6297</v>
       </c>
@@ -7538,7 +7514,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="68" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>6297</v>
       </c>
@@ -7618,7 +7594,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>10312</v>
       </c>
@@ -7669,7 +7645,7 @@
       <c r="AL69" s="16"/>
       <c r="AM69" s="16"/>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>15652</v>
       </c>
@@ -7768,7 +7744,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <v>15652</v>
       </c>
@@ -7867,7 +7843,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:41" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:41" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
         <v>15651</v>
       </c>
@@ -7890,7 +7866,7 @@
       <c r="AH72" s="19"/>
       <c r="AN72" s="19"/>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>14658</v>
       </c>
@@ -7950,7 +7926,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>14658</v>
       </c>
@@ -8010,7 +7986,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>14658</v>
       </c>
@@ -8070,7 +8046,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>14658</v>
       </c>
@@ -8130,7 +8106,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:41" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:41" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>10564</v>
       </c>
@@ -8150,7 +8126,7 @@
       <c r="AH77" s="19"/>
       <c r="AN77" s="19"/>
     </row>
-    <row r="78" spans="1:41" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:41" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18">
         <v>10565</v>
       </c>
@@ -8170,7 +8146,10 @@
       <c r="AH78" s="19"/>
       <c r="AN78" s="19"/>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>15647</v>
+      </c>
       <c r="B79" t="s">
         <v>291</v>
       </c>
@@ -8180,6 +8159,9 @@
       <c r="E79">
         <v>2009</v>
       </c>
+      <c r="F79" t="s">
+        <v>540</v>
+      </c>
       <c r="G79" t="s">
         <v>399</v>
       </c>
@@ -8220,7 +8202,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>15647</v>
+      </c>
       <c r="B80" t="s">
         <v>291</v>
       </c>
@@ -8230,6 +8215,9 @@
       <c r="E80">
         <v>2009</v>
       </c>
+      <c r="F80" t="s">
+        <v>540</v>
+      </c>
       <c r="G80" t="s">
         <v>399</v>
       </c>
@@ -8267,7 +8255,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8290</v>
       </c>
@@ -8285,7 +8273,7 @@
       </c>
       <c r="AM81" s="3"/>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>15647</v>
       </c>
@@ -8347,7 +8335,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>15806</v>
       </c>
@@ -8364,7 +8352,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>13777</v>
       </c>
@@ -8381,7 +8369,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1118</v>
       </c>
@@ -8446,7 +8434,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1118</v>
       </c>
@@ -8511,7 +8499,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1118</v>
       </c>
@@ -8576,7 +8564,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1118</v>
       </c>
@@ -8641,7 +8629,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1118</v>
       </c>
@@ -8706,7 +8694,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1118</v>
       </c>
@@ -8771,7 +8759,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>14218</v>
       </c>
@@ -8791,7 +8779,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>14296</v>
       </c>
@@ -8808,7 +8796,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>7223</v>
       </c>
@@ -8825,7 +8813,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>14628</v>
       </c>
@@ -8893,7 +8881,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2434</v>
       </c>
@@ -8910,7 +8898,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>14663</v>
       </c>
@@ -8933,7 +8921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6536</v>
       </c>
@@ -8953,7 +8941,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>14720</v>
       </c>
@@ -9024,7 +9012,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>14657</v>
       </c>
@@ -9041,7 +9029,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3602</v>
       </c>
@@ -9058,7 +9046,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>8327</v>
       </c>
@@ -9105,7 +9093,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>15849</v>
       </c>
@@ -9122,7 +9110,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>14670</v>
       </c>
@@ -9172,7 +9160,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>14670</v>
       </c>
@@ -9222,7 +9210,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>15548</v>
       </c>
@@ -9293,7 +9281,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:41" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:41" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18">
         <v>6298</v>
       </c>
@@ -9313,7 +9301,7 @@
       <c r="AH106" s="19"/>
       <c r="AN106" s="19"/>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>14714</v>
       </c>
@@ -9330,7 +9318,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10280</v>
       </c>
@@ -9347,7 +9335,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10321</v>
       </c>
@@ -9364,7 +9352,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>10324</v>
       </c>
@@ -9381,7 +9369,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10325</v>
       </c>
@@ -9398,7 +9386,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1883</v>
       </c>
@@ -9415,7 +9403,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>366</v>
       </c>
@@ -9465,7 +9453,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>14641</v>
       </c>
@@ -9494,7 +9482,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>14632</v>
       </c>
@@ -9544,7 +9532,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>14632</v>
       </c>
@@ -9594,7 +9582,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>9179</v>
       </c>
@@ -9611,7 +9599,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>14206</v>
       </c>
@@ -9628,7 +9616,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:41" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:41" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18">
         <v>14642</v>
       </c>
@@ -9648,7 +9636,7 @@
       <c r="AH119" s="19"/>
       <c r="AN119" s="19"/>
     </row>
-    <row r="120" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>14754</v>
       </c>
@@ -9671,7 +9659,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4301</v>
       </c>
@@ -9715,7 +9703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>14621</v>
       </c>
@@ -9777,7 +9765,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>14205</v>
       </c>
@@ -9797,7 +9785,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2066</v>
       </c>
@@ -9817,7 +9805,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>60</v>
       </c>
@@ -9870,7 +9858,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>283</v>
       </c>
@@ -9917,7 +9905,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2838</v>
       </c>
@@ -9937,7 +9925,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>7851</v>
       </c>
@@ -9957,7 +9945,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>7859</v>
       </c>
@@ -9977,7 +9965,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>9770</v>
       </c>
@@ -9997,7 +9985,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>15791</v>
       </c>
@@ -10017,7 +10005,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>10184</v>
       </c>
@@ -10037,7 +10025,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2132</v>
       </c>
@@ -10057,7 +10045,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>8481</v>
       </c>
@@ -10077,7 +10065,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="135" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>14295</v>
       </c>
@@ -10097,7 +10085,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>13739</v>
       </c>
@@ -10117,7 +10105,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="137" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2438</v>
       </c>
@@ -10137,7 +10125,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="138" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>8870</v>
       </c>
@@ -10169,7 +10157,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="139" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>14664</v>
       </c>
@@ -10234,7 +10222,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="140" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>13724</v>
       </c>
@@ -10293,7 +10281,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="141" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>7354</v>
       </c>
@@ -10316,7 +10304,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="142" spans="1:41" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:41" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="18">
         <v>8878</v>
       </c>
@@ -10339,7 +10327,7 @@
       <c r="AH142" s="19"/>
       <c r="AN142" s="19"/>
     </row>
-    <row r="143" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3094</v>
       </c>
@@ -10359,7 +10347,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="144" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>15862</v>
       </c>
@@ -10379,7 +10367,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3413</v>
       </c>
@@ -10399,7 +10387,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>10181</v>
       </c>
@@ -10419,7 +10407,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3151</v>
       </c>
@@ -10439,7 +10427,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3587</v>
       </c>
@@ -10459,7 +10447,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>126</v>
       </c>
@@ -10476,7 +10464,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>14665</v>
       </c>
@@ -10535,7 +10523,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>14665</v>
       </c>
@@ -10594,7 +10582,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>14665</v>
       </c>
@@ -10653,7 +10641,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>14665</v>
       </c>
@@ -10712,7 +10700,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2017</v>
       </c>
@@ -10774,7 +10762,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>13401</v>
       </c>
@@ -10827,7 +10815,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>13402</v>
       </c>
@@ -10880,7 +10868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>12081</v>
       </c>
@@ -10900,7 +10888,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>4984</v>
       </c>
@@ -10920,7 +10908,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>5245</v>
       </c>
@@ -10940,7 +10928,10 @@
         <v>374</v>
       </c>
     </row>
-    <row r="160" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>14760</v>
+      </c>
       <c r="B160" t="s">
         <v>440</v>
       </c>
@@ -10981,7 +10972,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>12412</v>
       </c>
@@ -11004,7 +10995,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="162" spans="1:42" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:42" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="18">
         <v>4974</v>
       </c>
@@ -11024,7 +11015,7 @@
       <c r="AH162" s="19"/>
       <c r="AN162" s="19"/>
     </row>
-    <row r="163" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>8074</v>
       </c>
@@ -11041,7 +11032,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>5965</v>
       </c>
@@ -11112,7 +11103,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="165" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>5965</v>
       </c>
@@ -11180,7 +11171,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="166" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>5965</v>
       </c>
@@ -11248,7 +11239,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="167" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>15865</v>
       </c>
@@ -11265,7 +11256,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="168" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>10314</v>
       </c>
@@ -11282,7 +11273,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="169" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>9466</v>
       </c>
@@ -11347,7 +11338,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="170" spans="1:42" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:42" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="18">
         <v>14700</v>
       </c>
@@ -11387,7 +11378,7 @@
       </c>
       <c r="AN170" s="19"/>
     </row>
-    <row r="171" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>14209</v>
       </c>
@@ -11404,7 +11395,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>13682</v>
       </c>
@@ -11421,7 +11412,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="173" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>13313</v>
       </c>
@@ -11492,7 +11483,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="174" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>13313</v>
       </c>
@@ -11554,7 +11545,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="175" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>10327</v>
       </c>
@@ -11571,7 +11562,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="176" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2149</v>
       </c>
@@ -11588,7 +11579,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="177" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>6850</v>
       </c>
@@ -11605,7 +11596,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="178" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1951</v>
       </c>
@@ -11622,7 +11613,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="179" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2326</v>
       </c>
@@ -11672,7 +11663,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="180" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>12134</v>
       </c>
@@ -11689,7 +11680,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="181" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>3588</v>
       </c>
@@ -11754,7 +11745,7 @@
       <c r="AL181" s="7"/>
       <c r="AM181" s="7"/>
     </row>
-    <row r="182" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>3588</v>
       </c>
@@ -11819,7 +11810,7 @@
       <c r="AL182" s="7"/>
       <c r="AM182" s="7"/>
     </row>
-    <row r="183" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1658</v>
       </c>
@@ -11836,7 +11827,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="184" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2140</v>
       </c>
@@ -11853,7 +11844,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="185" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>10287</v>
       </c>
@@ -11870,7 +11861,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="186" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>10460</v>
       </c>
@@ -11887,7 +11878,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="187" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>9944</v>
       </c>
@@ -11904,7 +11895,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="188" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>10288</v>
       </c>
@@ -11921,7 +11912,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="189" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>283</v>
       </c>
@@ -11965,7 +11956,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="190" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>14271</v>
       </c>
@@ -12014,7 +12005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="191" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>8467</v>
       </c>
@@ -12034,7 +12025,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="192" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>14755</v>
       </c>
@@ -12084,7 +12075,7 @@
         <v>0.83199999999999996</v>
       </c>
     </row>
-    <row r="193" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>14755</v>
       </c>
@@ -12122,7 +12113,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="194" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2016</v>
       </c>
@@ -12157,7 +12148,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="195" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>5397</v>
       </c>
@@ -12207,7 +12198,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="196" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>5397</v>
       </c>
@@ -12257,7 +12248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="197" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>3232</v>
       </c>
@@ -12271,7 +12262,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="198" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>3593</v>
       </c>
@@ -12335,7 +12326,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="199" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>12093</v>
       </c>
@@ -12352,7 +12343,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="200" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>14333</v>
       </c>
@@ -12393,7 +12384,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="201" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>14333</v>
       </c>
@@ -12434,7 +12425,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="202" spans="1:41" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:41" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="18">
         <v>10563</v>
       </c>
@@ -12451,7 +12442,7 @@
       <c r="AH202" s="19"/>
       <c r="AN202" s="19"/>
     </row>
-    <row r="203" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>10562</v>
       </c>
@@ -12493,135 +12484,135 @@
   <autoFilter ref="A1:AO203" xr:uid="{3621C4B4-2CC1-4B3C-A602-1E5AC292174A}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="X41:X45 Y42:AB42 T44:W45 Z43:AB53 P44:R45 Y43:Y45 Q46:R47 P41:W43 Y41 AA41:AB41 AA38:AM40 AC41:AM53 P39:Y40 T46:Y53 P46:P53 R48:R50 Q48:Q53 S44:S50 R51:S53 Z38:Z41 L39:O53 A2:K203 L38:Y38 L54:AM203 L2:AM9 L24:AM37 T10:AM23 L10:R23">
-    <cfRule type="expression" dxfId="7" priority="468">
+    <cfRule type="expression" dxfId="28" priority="468">
       <formula>$B2="D"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="469">
+    <cfRule type="expression" dxfId="27" priority="469">
       <formula>$B2="?"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="470">
+    <cfRule type="expression" dxfId="26" priority="470">
       <formula>$B2="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T61:AM61 L61:P61 A60:K84 L60:AM60 L62:AM84">
-    <cfRule type="expression" dxfId="32" priority="699">
+    <cfRule type="expression" dxfId="25" priority="699">
       <formula>$B1048470="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T152:AB153 AD152:AM153 N152:R153 Q113:R113 Q115:R116 C88:F90 A88:A90 H88:K90 L154:AM163 A152:K163 L152:L153 L88:AM104 A91:K104">
-    <cfRule type="expression" dxfId="31" priority="710">
+    <cfRule type="expression" dxfId="24" priority="710">
       <formula>$B1048493="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B90 G86:G90 C86:F87 A86:A87 H86:K87 A171:AM172 L85:AM87 A85:K85">
-    <cfRule type="expression" dxfId="30" priority="745">
+    <cfRule type="expression" dxfId="23" priority="745">
       <formula>$B1048487="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T151:AB151 S151:S153 AD151:AM151 AC151:AC153 N151:R151 M151:M153 L105:AM150 A105:K151 L151">
-    <cfRule type="expression" dxfId="29" priority="765">
+    <cfRule type="expression" dxfId="22" priority="765">
       <formula>$B1048511="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164:AM170">
-    <cfRule type="expression" dxfId="28" priority="784">
+    <cfRule type="expression" dxfId="21" priority="784">
       <formula>$B1048567="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:AM191">
-    <cfRule type="expression" dxfId="27" priority="801">
+    <cfRule type="expression" dxfId="20" priority="801">
       <formula>$B1048573="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192:AM199">
-    <cfRule type="expression" dxfId="26" priority="805">
+    <cfRule type="expression" dxfId="19" priority="805">
       <formula>$B1="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A200:AM203">
-    <cfRule type="expression" dxfId="25" priority="807">
+    <cfRule type="expression" dxfId="18" priority="807">
       <formula>$B8="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD39:AM39 AA39:AB39 P39:Y39 AA38:AM38 AC46 O39:O53 Z38:Z39 L39:N39 A38:K39 L38:Y38 A29:AM31">
-    <cfRule type="expression" dxfId="24" priority="809">
+    <cfRule type="expression" dxfId="17" priority="809">
       <formula>$B1048450="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:AM9 A24:AM28 T10:AM23 A10:R23">
-    <cfRule type="expression" dxfId="4" priority="820">
+    <cfRule type="expression" dxfId="16" priority="820">
       <formula>$B1048425="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q61:S61">
-    <cfRule type="expression" dxfId="23" priority="837">
+    <cfRule type="expression" dxfId="15" priority="837">
       <formula>$B1048469="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:AM37">
-    <cfRule type="expression" dxfId="22" priority="842">
+    <cfRule type="expression" dxfId="14" priority="842">
       <formula>$B1048456="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y48:AB53 T48:W53 AD48:AM53 P48:P53 A48:A59 B54:AM59 C48:N53">
-    <cfRule type="expression" dxfId="21" priority="859">
+    <cfRule type="expression" dxfId="13" priority="859">
       <formula>$B1048459="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B53 AC39 P40:AM45 AC47:AC53 R51:S53 X48:X53 A43:A45 A40:B42 C40:N45">
-    <cfRule type="expression" dxfId="20" priority="882">
+    <cfRule type="expression" dxfId="12" priority="882">
       <formula>$B1048455="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q46:R47 R48:R50 Q48:Q53">
-    <cfRule type="expression" dxfId="19" priority="977">
+    <cfRule type="expression" dxfId="11" priority="977">
       <formula>$B1048458="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD46:AM47 P46:P47 T46:AB47 A46:A47 C46:N47">
-    <cfRule type="expression" dxfId="18" priority="978">
+    <cfRule type="expression" dxfId="10" priority="978">
       <formula>$B1048460="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S46:S47">
-    <cfRule type="expression" dxfId="17" priority="1025">
+    <cfRule type="expression" dxfId="9" priority="1025">
       <formula>$B1048464="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S48:S50">
-    <cfRule type="expression" dxfId="16" priority="1141">
+    <cfRule type="expression" dxfId="8" priority="1141">
       <formula>$B1048461="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC38 AC46">
-    <cfRule type="expression" dxfId="15" priority="1162">
+    <cfRule type="expression" dxfId="7" priority="1162">
       <formula>$B39="D"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="1163">
+    <cfRule type="expression" dxfId="6" priority="1163">
       <formula>$B39="?"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="1164">
+    <cfRule type="expression" dxfId="5" priority="1164">
       <formula>$B39="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC46 AC38">
-    <cfRule type="expression" dxfId="12" priority="1168">
+    <cfRule type="expression" dxfId="4" priority="1168">
       <formula>$B1048460="L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S23">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$B10="D"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B10="?"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$B10="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S23">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$B1048433="L"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12637,7 +12628,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD169965-ED84-45F2-88E6-6EFBE8C5D228}">
           <x14:formula1>
-            <xm:f>Sheet3!$A$1:$A$10</xm:f>
+            <xm:f>Sheet3!$A$2:$A$11</xm:f>
           </x14:formula1>
           <xm:sqref>U1:U1048576</xm:sqref>
         </x14:dataValidation>
@@ -12649,18 +12640,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020595CF-9027-4B40-851A-504FD3AAF7E3}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -12668,7 +12660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -12676,12 +12668,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -12693,92 +12685,114 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833519D9-6413-4195-9F79-700D2F021C86}">
-  <dimension ref="A1:K50"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K20" s="4"/>
-    </row>
-    <row r="28" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K28" s="4"/>
-    </row>
-    <row r="30" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K30" s="4"/>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K33" s="4"/>
-    </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K37" s="4"/>
-    </row>
-    <row r="46" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K46" s="4"/>
-    </row>
-    <row r="48" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K48" s="4"/>
-    </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K50" s="5"/>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="4"/>
+    </row>
+    <row r="29" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="4"/>
+    </row>
+    <row r="31" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="4"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="4"/>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="4"/>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="4"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="4"/>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
